--- a/allocation_report.xlsx
+++ b/allocation_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,52 +434,102 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>VlookupUse</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Warehouse ID</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Distance (km)</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Allocated Quantity</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Split Order</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Prov/ State</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Postal/ Zip Code</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Country Code</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1736270</v>
+        <v>1730478</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SNSFNWO5005T3</t>
+          <t>SNSFNWO5005T4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>1730478SNSFNWO5005T4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>SDR Distribution - Calgary</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1628.263474105328</v>
-      </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
+        <v>1971.32907161098</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Scottsdale</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>85260</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1736270</v>
+        <v>1730478</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -488,22 +538,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>1730478SNSFNWO5005T1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>SDR Distribution - Calgary</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1628.263474105328</v>
-      </c>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
+        <v>1971.32907161098</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Scottsdale</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>85260</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1736270</v>
+        <v>1730478</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -512,1025 +587,4599 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>1730478SNSFNWO5005T2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>SDR Distribution - Calgary</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1628.263474105328</v>
-      </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
+        <v>1971.32907161098</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Scottsdale</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>85260</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1736270</v>
+        <v>1736493</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SNS2035U</t>
+          <t>SNS2035</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1628.263474105328</v>
+          <t>1736493SNS2035</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
+        <v>2683.878852763237</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Edmonton</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>T5R 1W3</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1736270</v>
+        <v>1736493</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SNST3005</t>
+          <t>SNSBS2005OG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1628.263474105328</v>
+          <t>1736493SNSBS2005OG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
+        <v>2683.878852763237</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Edmonton</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>T5R 1W3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1736288</v>
+        <v>1736493</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SNSFNWO5003T3</t>
+          <t>SNSFS2005OG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2921.922419521223</v>
+          <t>1736493SNSFS2005OG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
+        <v>2683.878852763237</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Edmonton</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>T5R 1W3</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1736288</v>
+        <v>1736493</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SNSFNWO5003T1</t>
+          <t>SNSPC2005OG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2921.922419521223</v>
+          <t>1736493SNSPC2005OG</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
+        <v>2683.878852763237</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Edmonton</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>T5R 1W3</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1736288</v>
+        <v>1736493</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SNSFNWO5003T2</t>
+          <t>SNSP2S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2921.922419521223</v>
+          <t>1736493SNSP2S</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
+        <v>2683.878852763237</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Edmonton</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>T5R 1W3</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1736293</v>
+        <v>1738512</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SNSFNWO5005T3</t>
+          <t>SNST3007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>1738512SNST3007</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>SDR Distribution - Calgary</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1733.496600430276</v>
-      </c>
       <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
+        <v>705.0475947003569</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Kenmore</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>98028</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1736293</v>
+        <v>1738824</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SNSFNWO5005T1</t>
+          <t>SNST3005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1733.496600430276</v>
+          <t>1738824SNST3005</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
+        <v>56.80878912513329</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Mississauga</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>L4X 2S2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1736293</v>
+        <v>1738824</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SNSFNWO5005T2</t>
+          <t>SNSP2S</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1733.496600430276</v>
+          <t>1738824SNSP2S</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
+        <v>56.80878912513329</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mississauga</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>L4X 2S2</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1736405</v>
+        <v>1738991</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SNS2035</t>
+          <t>SNSWB2005V</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>513.2882752615673</v>
+          <t>1738991SNSWB2005V</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
+        <v>1959.915242253225</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>76109</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1736424</v>
+        <v>1738991</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SNS2036</t>
+          <t>SNSWB2005O</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1169.649323040222</v>
+          <t>1738991SNSWB2005O</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
+        <v>1959.915242253225</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>76109</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1736427</v>
+        <v>1738991</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SNSP1S</t>
+          <t>SNSWB2005F</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>366.9340646954978</v>
+          <t>1738991SNSWB2005F</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
+        <v>1959.915242253225</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>76109</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1736438</v>
+        <v>1738991</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SNSBS1005W</t>
+          <t>SNSWB2003C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>535.1530297765635</v>
+          <t>1738991SNSWB2003C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
+        <v>1959.915242253225</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>76109</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1736457</v>
+        <v>1739771</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SNSDC2005L</t>
+          <t>SNS2035U</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>23.52348475967343</v>
+          <t>1739771SNS2035U</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
+        <v>1751.954084288991</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Shreveport</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>71106</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1736457</v>
+        <v>1739864</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SNSBS2005M</t>
+          <t>SNSBF4005P1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>23.52348475967343</v>
+          <t>1739864SNSBF4005P1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Second Closet - Toronto</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
+        <v>3330.615193842217</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1736473</v>
+        <v>1739864</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SNSBS1005D</t>
+          <t>SNSBF4005P2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>573.1727771572318</v>
+          <t>1739864SNSBF4005P2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Second Closet - Toronto</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
+        <v>3330.615193842217</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1736473</v>
+        <v>1739864</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SNSCL4005L</t>
+          <t>SNST3005</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>573.1727771572318</v>
+          <t>1739864SNST3005</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
+        <v>676.3096897539638</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1736487</v>
+        <v>1739864</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SNSFNWO5005T3</t>
+          <t>SNS1005</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>591.0727817200228</v>
+          <t>1739864SNS1005</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
+        <v>676.3096897539638</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1736487</v>
+        <v>1739864</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SNSFNWO5005T1</t>
+          <t>SNSBS1005T</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>591.0727817200228</v>
+          <t>1739864SNSBS1005T</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1736487</v>
+        <v>1739864</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SNSFNWO5005T2</t>
+          <t>SNSDC2005T</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>591.0727817200228</v>
+          <t>1739864SNSDC2005T</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1736496</v>
+        <v>1739864</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SNSDB0003W</t>
+          <t>SNSDV2005A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1491.91436447616</v>
+          <t>1739864SNSDV2005A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
+        <v>676.3096897539638</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1736496</v>
+        <v>1739864</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SNSBS1005T</t>
+          <t>SNSBAMA1001SA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1491.91436447616</v>
+          <t>1739864SNSBAMA1001SA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1736498</v>
+        <v>1739864</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SNSDV2006L</t>
+          <t>SNSBAMA1001FB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>3487.498093672441</v>
+          <t>1739864SNSBAMA1001FB</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1736499</v>
+        <v>1739864</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SNSP1S</t>
+          <t>SNSBATO1003SA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>189.6733589112557</v>
+          <t>1739864SNSBATO1003SA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1736501</v>
+        <v>1739864</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SNSP1S</t>
+          <t>SNSBATO1001SA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1126.284825369496</v>
+          <t>1739864SNSBATO1001SA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1736507</v>
+        <v>1739864</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SNSDV2005L</t>
+          <t>SNSBATO1003FB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>677.7674610109033</v>
+          <t>1739864SNSBATO1003FB</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1736511</v>
+        <v>1739864</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SNSBS1007D</t>
+          <t>SNSBATO1002FB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2303.823519300349</v>
+          <t>1739864SNSBATO1002FB</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1736513</v>
+        <v>1739864</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SNSCL4005L</t>
+          <t>SNSP2S</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>23.52348475967343</v>
+          <t>1739864SNSP2S</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
+        <v>676.3096897539638</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1736513</v>
+        <v>1739864</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SNSBS1005D</t>
+          <t>SNSBATO1002SA2PK</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>23.52348475967343</v>
+          <t>1739864SNSBATO1002SA2PK</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1736513</v>
+        <v>1739864</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SNSPC1006D</t>
+          <t>SNSBATO1001FB2PK</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>23.52348475967343</v>
+          <t>1739864SNSBATO1001FB2PK</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
+        <v>3331.705630573245</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>North Vancouver</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>V7L 1S8</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1736513</v>
+        <v>1740348</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SNSPC1006D</t>
+          <t>SNSBS2005L</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>2706.7069978224</v>
+          <t>1740348SNSBS2005L</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
+        <v>926.7785058951848</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Montrï¿½al</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>H2T 1G8</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1736513</v>
+        <v>1740348</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SNSPC3005W</t>
+          <t>SNSFS2005N</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>1740348SNSFS2005N</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Office</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>3324.969078211976</v>
-      </c>
       <c r="E35" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
+        <v>926.7785058951848</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Montrï¿½al</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>H2T 1G8</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1736515</v>
+        <v>1740351</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SNSBS1005V</t>
+          <t>SNSFNWO5005T3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>25.12033595381593</v>
+          <t>1740351SNSFNWO5005T3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
+        <v>2038.23639440014</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Poway</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>92064</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1736515</v>
+        <v>1740351</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SNSDC1005T</t>
+          <t>SNSFNWO5005T1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>25.12033595381593</v>
+          <t>1740351SNSFNWO5005T1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
+        <v>2038.23639440014</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Poway</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>92064</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1736519</v>
+        <v>1740351</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SNSDV2006A</t>
+          <t>SNSFNWO5005T2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>1740351SNSFNWO5005T2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>SDR Distribution - Calgary</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>276.3716256043833</v>
-      </c>
       <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
+        <v>2038.23639440014</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Poway</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>92064</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1736519</v>
+        <v>1740356</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SNSDC1006D</t>
+          <t>SNSDB0003W</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>276.3716256043833</v>
+          <t>1740356SNSDB0003W</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
+        <v>1268.715799986419</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Halifax</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>B3S 1H9</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1736519</v>
+        <v>1740356</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SNSBS1006W</t>
+          <t>SNSP1K</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>276.3716256043833</v>
+          <t>1740356SNSP1K</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
+        <v>1268.715799986419</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Halifax</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>B3S 1H9</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1736522</v>
+        <v>1740359</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SNS3006</t>
+          <t>SNS1005</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>193.1743489310205</v>
+          <t>1740359SNS1005</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
+        <v>688.5506565643705</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>V5T 2N5</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1736524</v>
+        <v>1740361</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SNSMATP3001F</t>
+          <t>SNSBS5005D</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SDR Distribution - Calgary</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>697.2168746472574</v>
+          <t>1740361SNSBS5005D</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
+        <v>6.561027429648013</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>M5A 3N9</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1736527</v>
+        <v>1740364</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SNSP1S</t>
+          <t>SNSMATP3005F</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>1036.422129248805</v>
+          <t>1740364SNSMATP3005F</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Second Closet - Toronto</t>
+        </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
+        <v>936.2843201395931</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>bayfield</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>54814</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1736527</v>
+        <v>1740366</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SNS1005</t>
+          <t>SNS1006U</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1036.422129248805</v>
+          <t>1740366SNS1006U</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
+        <v>1946.021240499757</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Arlington</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>76005</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1736528</v>
+        <v>1740380</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SNSMATP3001M</t>
+          <t>SNSP1K</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SDR Distribution</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>767.0870611634924</v>
+          <t>1740380SNSP1K</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
+        <v>1162.300837764452</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Kingston</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>B0P 1R0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1736530</v>
+        <v>1740385</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SNSP1K</t>
+          <t>SNSBS5005SG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>1740385SNSBS5005SG</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>93.63109406285626</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Wasaga Beach</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>L9Z 1E2</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1740392</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SNST3005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1740392SNST3005</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>SDR Distribution - Calgary</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>1197.534423703212</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="b">
-        <v>0</v>
+      <c r="E47" t="n">
+        <v>13.25185842570576</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>T2G 1L6</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1740399</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SNST3005</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1740399SNST3005</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>487.2393772266851</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mirabel</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>J7J 2R5</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1740399</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SNS2035</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1740399SNS2035</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>487.2393772266851</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Mirabel</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>J7J 2R5</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1740401</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SNSBATO1004TB</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1740401SNSBATO1004TB</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>49.004745948704</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Millgrove</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>L8B 1C3</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1740401</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SNSBAMA1001TB</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1740401SNSBAMA1001TB</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>49.004745948704</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Millgrove</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>L8B 1C3</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1740401</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SNSBATO3002IS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1740401SNSBATO3002IS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>49.004745948704</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Millgrove</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>L8B 1C3</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1740401</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SNSBATO3004IS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1740401SNSBATO3004IS</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>49.004745948704</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Millgrove</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>L8B 1C3</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1740401</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SNSBATO1001TB2PK</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1740401SNSBATO1001TB2PK</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>49.004745948704</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Millgrove</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>L8B 1C3</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1740401</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SNSBATO1002TB2PK</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1740401SNSBATO1002TB2PK</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>49.004745948704</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Millgrove</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>L8B 1C3</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1740403</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SNSWB2000B</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1740403SNSWB2000B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>568.4804270689807</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Falls Church</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>22042</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1740410</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SNSBARO2002SA</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1740410SNSBARO2002SA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>684.3527037578979</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Waltham</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1740418</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SNSFNWO5005T3</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1740418SNSFNWO5005T3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1281.208164765681</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Bluffton</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>29910</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1740418</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SNSFNWO5005T1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1740418SNSFNWO5005T1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1281.208164765681</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Bluffton</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>29910</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1740418</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SNSFNWO5005T2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1740418SNSFNWO5005T2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1281.208164765681</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Bluffton</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>29910</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1740420</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SNSBS5005R</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1740420SNSBS5005R</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3340.344133680875</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>V6B 2J8</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1740420</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SNSWB2003G</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1740420SNSWB2003G</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3340.344133680875</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>V6B 2J8</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1740420</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SNSP2S</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1740420SNSP2S</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>3340.344133680875</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>V6B 2J8</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1740422</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SNS2036</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1740422SNS2036</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Second Closet - Toronto</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>49.34347497781878</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>L1T 0G8</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1740429</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SNSMATP3003M</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1740429SNSMATP3003M</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>554.8442465672885</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Upper Darby</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>19082</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1740431</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SNSP1S</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1740431SNSP1S</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>73.11464025791477</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Niagara Falls</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>L2J 1T7</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1740436</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SNSBS1006T</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1740436SNSBS1006T</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1490.670221145966</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Shingle Springs</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>95682</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1740438</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SNSPC1005V</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1740438SNSPC1005V</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>13.25185842570576</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>T2R 1C2</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1740438</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SNSDB0003W</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1740438SNSDB0003W</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>13.25185842570576</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Calgary</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>T2R 1C2</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1740440</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SNSBS5005TR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1740440SNSBS5005TR</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3292.743082858272</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Prince Rupert</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>V8J 1X4</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1740444</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SNSWB2004B</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1740444SNSWB2004B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3301.977277660509</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Bend</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>97702</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1740446</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SNST3003</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1740446SNST3003</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>44.45942367983996</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Holland Landing</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>L9N 1R9</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1740448</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SNSMATP3005M</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1740448SNSMATP3005M</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2593.186557529898</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Lethbridge</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>T1J 5C6</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1740448</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SNSBS1005W</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1740448SNSBS1005W</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2593.186557529898</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Lethbridge</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>T1J 5C6</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1740448</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SNSDC4005W</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1740448SNSDC4005W</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2593.186557529898</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Lethbridge</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>T1J 5C6</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1740448</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SNSPC4005W</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1740448SNSPC4005W</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2593.186557529898</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Lethbridge</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>T1J 5C6</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1740448</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SNSP2S</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1740448SNSP2S</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2593.186557529898</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Lethbridge</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>T1J 5C6</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1740452</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SNSBS2005L</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1740452SNSBS2005L</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1932.52713530873</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>90042</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SNSBATO3003FN</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1740455SNSBATO3003FN</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3340.344133680875</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>V6E 1P8</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SNSBATO3002CS2PK</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1740455SNSBATO3002CS2PK</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3340.344133680875</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Vancouver</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>V6E 1P8</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1740457</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SNST3006</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1740457SNST3006</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3281.036885141442</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Abbotsford</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>V4X 0B2</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1740457</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SNS2036</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1740457SNS2036</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3281.036885141442</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Abbotsford</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>V4X 0B2</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1740460</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SNSDV2005A</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1740460SNSDV2005A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>22.27734470230659</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>M6J 3W9</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1740460</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SNSBS5005T</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1740460SNSBS5005T</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>22.27734470230659</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>M6J 3W9</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1740462</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SNSBS5005SG</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1740462SNSBS5005SG</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1089.403708419567</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Minneapolis</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>55419</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1740463</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SNSFNWO5006T3</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1740463SNSFNWO5006T3</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>80.75908919138038</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Branttford</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>N3T 5L5</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1740463</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SNSFNWO5006T1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1740463SNSFNWO5006T1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>80.75908919138038</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Branttford</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>N3T 5L5</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1740463</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SNSFNWO5006T2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1740463SNSFNWO5006T2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>80.75908919138038</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Branttford</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>N3T 5L5</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1740466</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SNSDC1005W</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1740466SNSDC1005W</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>6.561027429648013</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>M8Y 0C7</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1740468</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SNSBS5005SG</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1740468SNSBS5005SG</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1360.062415995036</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Omaha</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>68144</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1740470</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SNSBS2006L</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1740470SNSBS2006L</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>2593.186557529898</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Lethbridge</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>T1J 4A7</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1740470</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SNSBATO2004WH</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1740470SNSBATO2004WH</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>2593.186557529898</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Lethbridge</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>T1J 4A7</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1740470</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SNSDC2006L</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1740470SNSDC2006L</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>2593.186557529898</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Lethbridge</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>T1J 4A7</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1740485</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SNS2036</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1740485SNS2036</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Second Closet - Toronto</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>3073.55108359498</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Surrey</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>V4N 6N5</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1740487</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SNSMATP3006F</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1740487SNSMATP3006F</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SDR Distribution - Calgary</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1658.133547570388</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>95120</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1740489</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SNSP2S</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1740489SNSP2S</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SDR Distribution</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>66.05368145567179</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Cambridge</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>N3H 2Y3</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1740491</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SNSPC3006W</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1740491SNSPC3006W</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>6.561027429648013</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>M9A 2V4</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
       </c>
     </row>
   </sheetData>
